--- a/data/TEMPO_SR_2019-07-09.xlsx
+++ b/data/TEMPO_SR_2019-07-09.xlsx
@@ -3791,7 +3791,7 @@
     <numFmt numFmtId="169" formatCode="hh:mm"/>
     <numFmt numFmtId="170" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3898,6 +3898,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
@@ -4013,7 +4019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4300,6 +4306,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8157,7 +8169,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8497,7 +8509,7 @@
       </c>
     </row>
     <row r="2" spans="1:96" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="125" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="26">
@@ -8663,7 +8675,7 @@
       <c r="CR2" s="25"/>
     </row>
     <row r="3" spans="1:96" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="125" t="s">
         <v>198</v>
       </c>
       <c r="B3" s="26">
@@ -8831,7 +8843,7 @@
       <c r="CR3" s="25"/>
     </row>
     <row r="4" spans="1:96" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="126" t="s">
         <v>205</v>
       </c>
       <c r="B4" s="36">
@@ -9007,7 +9019,7 @@
       <c r="CR4" s="34"/>
     </row>
     <row r="5" spans="1:96" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="126" t="s">
         <v>213</v>
       </c>
       <c r="B5" s="36">
@@ -9179,7 +9191,7 @@
       <c r="CR5" s="34"/>
     </row>
     <row r="6" spans="1:96" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="126" t="s">
         <v>220</v>
       </c>
       <c r="B6" s="36">

--- a/data/TEMPO_SR_2019-07-09.xlsx
+++ b/data/TEMPO_SR_2019-07-09.xlsx
@@ -8232,10 +8232,10 @@
   <dimension ref="A1:AMJ97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/data/TEMPO_SR_2019-07-09.xlsx
+++ b/data/TEMPO_SR_2019-07-09.xlsx
@@ -8235,7 +8235,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
